--- a/lab3_Pthread和Openmp/实验数据.xlsx
+++ b/lab3_Pthread和Openmp/实验数据.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>pthread1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,62 @@
   </si>
   <si>
     <t>实验二：普通高斯消去计算pthread和SSE、AVX结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread1_SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread1_AVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread2_SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread2_AVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread3_SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread3_AVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread4_SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread4_AVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验三：普通高斯消去计算pthread和Neon结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread2_Neon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread1_Neon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread3_Neon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread4_Neon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,25 +448,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:I13"/>
+  <dimension ref="D3:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -430,7 +496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>64</v>
       </c>
@@ -450,7 +516,7 @@
         <v>1.76833</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>128</v>
       </c>
@@ -470,7 +536,7 @@
         <v>3.9238599999999999</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>256</v>
       </c>
@@ -490,7 +556,7 @@
         <v>12.036</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>512</v>
       </c>
@@ -510,7 +576,7 @@
         <v>93.897400000000005</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>1024</v>
       </c>
@@ -530,7 +596,7 @@
         <v>648.67100000000005</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>2048</v>
       </c>
@@ -550,9 +616,346 @@
         <v>4807.49</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1">
+        <v>19.6191</v>
+      </c>
+      <c r="F16" s="1">
+        <v>18.277200000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.0085799999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.1414800000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.03254</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.61856</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.84368</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.50928</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>128</v>
+      </c>
+      <c r="E17" s="1">
+        <v>36.8782</v>
+      </c>
+      <c r="F17" s="1">
+        <v>36.362000000000002</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.3257700000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.09612</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.67822</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3.4774099999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3.4349400000000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3.4205199999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>256</v>
+      </c>
+      <c r="E18" s="1">
+        <v>74.345500000000001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>74.421499999999995</v>
+      </c>
+      <c r="G18" s="1">
+        <v>12.2742</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9.1731499999999997</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10.7218</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9.6463900000000002</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10.5223</v>
+      </c>
+      <c r="L18" s="1">
+        <v>9.9506800000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>512</v>
+      </c>
+      <c r="E19" s="1">
+        <v>182.429</v>
+      </c>
+      <c r="F19" s="1">
+        <v>172.11600000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>54.433300000000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>43.968600000000002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>56.355499999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45.825200000000002</v>
+      </c>
+      <c r="K19" s="1">
+        <v>60.891800000000003</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45.971600000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="1">
+        <v>469.42700000000002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>380.63299999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>339.43099999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>208.53899999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>315.41399999999999</v>
+      </c>
+      <c r="J20" s="1">
+        <v>266.82400000000001</v>
+      </c>
+      <c r="K20" s="1">
+        <v>401.82499999999999</v>
+      </c>
+      <c r="L20" s="1">
+        <v>270.85599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2048</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3147.71</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1757.41</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2609.4899999999998</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1302.6400000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2607.12</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1366.95</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1988.47</v>
+      </c>
+      <c r="L21" s="1">
+        <v>938.98099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8.1097000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.7097</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.53007</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.35364</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>128</v>
+      </c>
+      <c r="E27" s="1">
+        <v>16.9895</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.78044</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.53945</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.05423</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>256</v>
+      </c>
+      <c r="E28" s="1">
+        <v>37.4285</v>
+      </c>
+      <c r="F28" s="1">
+        <v>11.8249</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10.8834</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9.5529899999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>512</v>
+      </c>
+      <c r="E29" s="1">
+        <v>104.89</v>
+      </c>
+      <c r="F29" s="1">
+        <v>56.141599999999997</v>
+      </c>
+      <c r="G29" s="1">
+        <v>54.3797</v>
+      </c>
+      <c r="H29" s="1">
+        <v>52.540599999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1024</v>
+      </c>
+      <c r="E30" s="1">
+        <v>461.96300000000002</v>
+      </c>
+      <c r="F30" s="1">
+        <v>392.10899999999998</v>
+      </c>
+      <c r="G30" s="1">
+        <v>394.065</v>
+      </c>
+      <c r="H30" s="1">
+        <v>370.94099999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>2048</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2859.52</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4776.09</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4581.2299999999996</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4261.43</v>
       </c>
     </row>
   </sheetData>

--- a/lab3_Pthread和Openmp/实验数据.xlsx
+++ b/lab3_Pthread和Openmp/实验数据.xlsx
@@ -24,23 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t>pthread1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pthread2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pthread3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pthread4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实验一：普通高斯消去计算pthread的四种算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验二：普通高斯消去计算pthread和SSE、AVX结合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pthread1_SSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实验三：普通高斯消去计算pthread和Neon结合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运行时间(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +87,54 @@
   </si>
   <si>
     <t>pthread4_Neon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验一：普通高斯消去计算pthread按行划分的四种算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread1_Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread2_Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread3_Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread4_Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验二：普通高斯消去计算pthread按列划分的四种算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验三：普通高斯消去计算pthread和SSE、AVX结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验四：普通高斯消去计算pthread和Neon结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread1_Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread2_Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread3_Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread4_Col</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L31"/>
+  <dimension ref="D3:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -466,37 +486,37 @@
     <col min="12" max="12" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>64</v>
       </c>
@@ -516,7 +536,7 @@
         <v>1.76833</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>128</v>
       </c>
@@ -536,7 +556,7 @@
         <v>3.9238599999999999</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>256</v>
       </c>
@@ -556,7 +576,7 @@
         <v>12.036</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>512</v>
       </c>
@@ -576,7 +596,7 @@
         <v>93.897400000000005</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>1024</v>
       </c>
@@ -596,7 +616,7 @@
         <v>648.67100000000005</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>2048</v>
       </c>
@@ -616,72 +636,48 @@
         <v>4807.49</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>64</v>
       </c>
       <c r="E16" s="1">
-        <v>19.6191</v>
+        <v>14.866199999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>18.277200000000001</v>
+        <v>1.9259900000000001</v>
       </c>
       <c r="G16" s="1">
-        <v>2.0085799999999998</v>
+        <v>1.84657</v>
       </c>
       <c r="H16" s="1">
-        <v>2.1414800000000001</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2.03254</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.61856</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1.84368</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1.50928</v>
+        <v>1.91414</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
@@ -689,28 +685,16 @@
         <v>128</v>
       </c>
       <c r="E17" s="1">
-        <v>36.8782</v>
+        <v>30.579899999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>36.362000000000002</v>
+        <v>4.9853899999999998</v>
       </c>
       <c r="G17" s="1">
-        <v>4.3257700000000003</v>
+        <v>4.7769199999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>4.09612</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3.67822</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3.4774099999999999</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3.4349400000000001</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3.4205199999999998</v>
+        <v>4.7980600000000004</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
@@ -718,28 +702,16 @@
         <v>256</v>
       </c>
       <c r="E18" s="1">
-        <v>74.345500000000001</v>
+        <v>63.619</v>
       </c>
       <c r="F18" s="1">
-        <v>74.421499999999995</v>
+        <v>20.043199999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>12.2742</v>
+        <v>19.788</v>
       </c>
       <c r="H18" s="1">
-        <v>9.1731499999999997</v>
-      </c>
-      <c r="I18" s="1">
-        <v>10.7218</v>
-      </c>
-      <c r="J18" s="1">
-        <v>9.6463900000000002</v>
-      </c>
-      <c r="K18" s="1">
-        <v>10.5223</v>
-      </c>
-      <c r="L18" s="1">
-        <v>9.9506800000000002</v>
+        <v>19.551400000000001</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
@@ -747,28 +719,16 @@
         <v>512</v>
       </c>
       <c r="E19" s="1">
-        <v>182.429</v>
+        <v>200.99199999999999</v>
       </c>
       <c r="F19" s="1">
-        <v>172.11600000000001</v>
+        <v>113.651</v>
       </c>
       <c r="G19" s="1">
-        <v>54.433300000000003</v>
+        <v>111.274</v>
       </c>
       <c r="H19" s="1">
-        <v>43.968600000000002</v>
-      </c>
-      <c r="I19" s="1">
-        <v>56.355499999999999</v>
-      </c>
-      <c r="J19" s="1">
-        <v>45.825200000000002</v>
-      </c>
-      <c r="K19" s="1">
-        <v>60.891800000000003</v>
-      </c>
-      <c r="L19" s="1">
-        <v>45.971600000000002</v>
+        <v>116.251</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
@@ -776,28 +736,16 @@
         <v>1024</v>
       </c>
       <c r="E20" s="1">
-        <v>469.42700000000002</v>
+        <v>830.15800000000002</v>
       </c>
       <c r="F20" s="1">
-        <v>380.63299999999998</v>
+        <v>710.92499999999995</v>
       </c>
       <c r="G20" s="1">
-        <v>339.43099999999998</v>
+        <v>672.52099999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>208.53899999999999</v>
-      </c>
-      <c r="I20" s="1">
-        <v>315.41399999999999</v>
-      </c>
-      <c r="J20" s="1">
-        <v>266.82400000000001</v>
-      </c>
-      <c r="K20" s="1">
-        <v>401.82499999999999</v>
-      </c>
-      <c r="L20" s="1">
-        <v>270.85599999999999</v>
+        <v>684.1</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
@@ -805,55 +753,55 @@
         <v>2048</v>
       </c>
       <c r="E21" s="1">
-        <v>3147.71</v>
+        <v>3892.49</v>
       </c>
       <c r="F21" s="1">
-        <v>1757.41</v>
+        <v>3581.19</v>
       </c>
       <c r="G21" s="1">
-        <v>2609.4899999999998</v>
+        <v>3684.94</v>
       </c>
       <c r="H21" s="1">
-        <v>1302.6400000000001</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2607.12</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1366.95</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1988.47</v>
-      </c>
-      <c r="L21" s="1">
-        <v>938.98099999999999</v>
+        <v>3691.73</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
@@ -861,16 +809,28 @@
         <v>64</v>
       </c>
       <c r="E26" s="1">
-        <v>8.1097000000000001</v>
+        <v>19.6191</v>
       </c>
       <c r="F26" s="1">
-        <v>1.7097</v>
+        <v>18.277200000000001</v>
       </c>
       <c r="G26" s="1">
-        <v>1.53007</v>
+        <v>2.0085799999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1.35364</v>
+        <v>2.1414800000000001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.03254</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.61856</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.84368</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.50928</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
@@ -878,16 +838,28 @@
         <v>128</v>
       </c>
       <c r="E27" s="1">
-        <v>16.9895</v>
+        <v>36.8782</v>
       </c>
       <c r="F27" s="1">
-        <v>3.78044</v>
+        <v>36.362000000000002</v>
       </c>
       <c r="G27" s="1">
-        <v>3.53945</v>
+        <v>4.3257700000000003</v>
       </c>
       <c r="H27" s="1">
-        <v>3.05423</v>
+        <v>4.09612</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.67822</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.4774099999999999</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.4349400000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3.4205199999999998</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
@@ -895,16 +867,28 @@
         <v>256</v>
       </c>
       <c r="E28" s="1">
-        <v>37.4285</v>
+        <v>74.345500000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>11.8249</v>
+        <v>74.421499999999995</v>
       </c>
       <c r="G28" s="1">
-        <v>10.8834</v>
+        <v>12.2742</v>
       </c>
       <c r="H28" s="1">
-        <v>9.5529899999999994</v>
+        <v>9.1731499999999997</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10.7218</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9.6463900000000002</v>
+      </c>
+      <c r="K28" s="1">
+        <v>10.5223</v>
+      </c>
+      <c r="L28" s="1">
+        <v>9.9506800000000002</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
@@ -912,16 +896,28 @@
         <v>512</v>
       </c>
       <c r="E29" s="1">
-        <v>104.89</v>
+        <v>182.429</v>
       </c>
       <c r="F29" s="1">
-        <v>56.141599999999997</v>
+        <v>172.11600000000001</v>
       </c>
       <c r="G29" s="1">
-        <v>54.3797</v>
+        <v>54.433300000000003</v>
       </c>
       <c r="H29" s="1">
-        <v>52.540599999999998</v>
+        <v>43.968600000000002</v>
+      </c>
+      <c r="I29" s="1">
+        <v>56.355499999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45.825200000000002</v>
+      </c>
+      <c r="K29" s="1">
+        <v>60.891800000000003</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45.971600000000002</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
@@ -929,16 +925,28 @@
         <v>1024</v>
       </c>
       <c r="E30" s="1">
-        <v>461.96300000000002</v>
+        <v>469.42700000000002</v>
       </c>
       <c r="F30" s="1">
-        <v>392.10899999999998</v>
+        <v>380.63299999999998</v>
       </c>
       <c r="G30" s="1">
-        <v>394.065</v>
+        <v>339.43099999999998</v>
       </c>
       <c r="H30" s="1">
-        <v>370.94099999999997</v>
+        <v>208.53899999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>315.41399999999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>266.82400000000001</v>
+      </c>
+      <c r="K30" s="1">
+        <v>401.82499999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>270.85599999999999</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
@@ -946,15 +954,156 @@
         <v>2048</v>
       </c>
       <c r="E31" s="1">
+        <v>3147.71</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1757.41</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2609.4899999999998</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1302.6400000000001</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2607.12</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1366.95</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1988.47</v>
+      </c>
+      <c r="L31" s="1">
+        <v>938.98099999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8.1097000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.7097</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.53007</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.35364</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>128</v>
+      </c>
+      <c r="E37" s="1">
+        <v>16.9895</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3.78044</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.53945</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3.05423</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>256</v>
+      </c>
+      <c r="E38" s="1">
+        <v>37.4285</v>
+      </c>
+      <c r="F38" s="1">
+        <v>11.8249</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10.8834</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9.5529899999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>512</v>
+      </c>
+      <c r="E39" s="1">
+        <v>104.89</v>
+      </c>
+      <c r="F39" s="1">
+        <v>56.141599999999997</v>
+      </c>
+      <c r="G39" s="1">
+        <v>54.3797</v>
+      </c>
+      <c r="H39" s="1">
+        <v>52.540599999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1024</v>
+      </c>
+      <c r="E40" s="1">
+        <v>461.96300000000002</v>
+      </c>
+      <c r="F40" s="1">
+        <v>392.10899999999998</v>
+      </c>
+      <c r="G40" s="1">
+        <v>394.065</v>
+      </c>
+      <c r="H40" s="1">
+        <v>370.94099999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2048</v>
+      </c>
+      <c r="E41" s="1">
         <v>2859.52</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F41" s="1">
         <v>4776.09</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G41" s="1">
         <v>4581.2299999999996</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H41" s="1">
         <v>4261.43</v>
       </c>
     </row>

--- a/lab3_Pthread和Openmp/实验数据.xlsx
+++ b/lab3_Pthread和Openmp/实验数据.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,22 @@
   </si>
   <si>
     <t>pthread4_Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验五：普通高斯消去计算OpenMP按行按列划分算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMP_Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMP_Col</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L41"/>
+  <dimension ref="D3:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="77" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1107,6 +1123,96 @@
         <v>4261.43</v>
       </c>
     </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>64</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.32980999999999999</v>
+      </c>
+      <c r="F46">
+        <v>0.21285000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>128</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.5542</v>
+      </c>
+      <c r="F47">
+        <v>1.36513</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>256</v>
+      </c>
+      <c r="E48" s="1">
+        <v>12.968400000000001</v>
+      </c>
+      <c r="F48">
+        <v>8.9909099999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>512</v>
+      </c>
+      <c r="E49" s="1">
+        <v>105.06100000000001</v>
+      </c>
+      <c r="F49">
+        <v>77.160899999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1024</v>
+      </c>
+      <c r="E50" s="1">
+        <v>754.21400000000006</v>
+      </c>
+      <c r="F50">
+        <v>622.005</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2048</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6451.95</v>
+      </c>
+      <c r="F51">
+        <v>4906.25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab3_Pthread和Openmp/实验数据.xlsx
+++ b/lab3_Pthread和Openmp/实验数据.xlsx
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="77" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,10 +537,10 @@
         <v>64</v>
       </c>
       <c r="E6" s="1">
-        <v>0.54</v>
+        <v>0.23091200000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>18.622499999999999</v>
+        <v>13.9643</v>
       </c>
       <c r="G6" s="1">
         <v>1.91716</v>
@@ -557,10 +557,10 @@
         <v>128</v>
       </c>
       <c r="E7" s="1">
-        <v>2.4510000000000001</v>
+        <v>1.60659</v>
       </c>
       <c r="F7" s="1">
-        <v>35.495600000000003</v>
+        <v>29.103899999999999</v>
       </c>
       <c r="G7" s="1">
         <v>4.4988599999999996</v>
@@ -577,10 +577,10 @@
         <v>256</v>
       </c>
       <c r="E8" s="1">
-        <v>17.795999999999999</v>
+        <v>12.7813</v>
       </c>
       <c r="F8" s="1">
-        <v>71.071600000000004</v>
+        <v>55.397399999999998</v>
       </c>
       <c r="G8" s="1">
         <v>13.596500000000001</v>
@@ -597,10 +597,10 @@
         <v>512</v>
       </c>
       <c r="E9" s="1">
-        <v>129.483</v>
+        <v>100.93899999999999</v>
       </c>
       <c r="F9" s="1">
-        <v>186.715</v>
+        <v>138.65</v>
       </c>
       <c r="G9" s="1">
         <v>80.180800000000005</v>
@@ -617,10 +617,10 @@
         <v>1024</v>
       </c>
       <c r="E10" s="1">
-        <v>1796.03</v>
+        <v>758.33600000000001</v>
       </c>
       <c r="F10" s="1">
-        <v>697.77599999999995</v>
+        <v>461.94499999999999</v>
       </c>
       <c r="G10" s="1">
         <v>535.49599999999998</v>

--- a/lab3_Pthread和Openmp/实验数据.xlsx
+++ b/lab3_Pthread和Openmp/实验数据.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,30 @@
   </si>
   <si>
     <t>OpenMP_Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMP_SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMP_AVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMP_Neon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验六：普通高斯消去计算OpenMP与SSE、AVX结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验六：普通高斯消去计算OpenMP与Neon结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L51"/>
+  <dimension ref="D3:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,19 +561,19 @@
         <v>64</v>
       </c>
       <c r="E6" s="1">
-        <v>0.23091200000000001</v>
+        <v>0.20593700000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>13.9643</v>
+        <v>15.8292</v>
       </c>
       <c r="G6" s="1">
-        <v>1.91716</v>
+        <v>1.73411</v>
       </c>
       <c r="H6" s="1">
-        <v>1.96749</v>
+        <v>1.55209</v>
       </c>
       <c r="I6" s="1">
-        <v>1.76833</v>
+        <v>1.43371</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.25">
@@ -557,19 +581,19 @@
         <v>128</v>
       </c>
       <c r="E7" s="1">
-        <v>1.60659</v>
+        <v>1.6506099999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>29.103899999999999</v>
+        <v>30.5898</v>
       </c>
       <c r="G7" s="1">
-        <v>4.4988599999999996</v>
+        <v>3.48386</v>
       </c>
       <c r="H7" s="1">
-        <v>4.1617100000000002</v>
+        <v>2.9650699999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>3.9238599999999999</v>
+        <v>2.73977</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
@@ -577,19 +601,19 @@
         <v>256</v>
       </c>
       <c r="E8" s="1">
-        <v>12.7813</v>
+        <v>13.079599999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>55.397399999999998</v>
+        <v>57.713299999999997</v>
       </c>
       <c r="G8" s="1">
-        <v>13.596500000000001</v>
+        <v>10.528600000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>13.4682</v>
+        <v>10.1945</v>
       </c>
       <c r="I8" s="1">
-        <v>12.036</v>
+        <v>9.6370299999999993</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
@@ -597,19 +621,19 @@
         <v>512</v>
       </c>
       <c r="E9" s="1">
-        <v>100.93899999999999</v>
+        <v>109.035</v>
       </c>
       <c r="F9" s="1">
         <v>138.65</v>
       </c>
       <c r="G9" s="1">
-        <v>80.180800000000005</v>
+        <v>53.378</v>
       </c>
       <c r="H9" s="1">
-        <v>82.632300000000001</v>
+        <v>51.310499999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>93.897400000000005</v>
+        <v>52.791400000000003</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
@@ -617,19 +641,19 @@
         <v>1024</v>
       </c>
       <c r="E10" s="1">
-        <v>758.33600000000001</v>
+        <v>794.70500000000004</v>
       </c>
       <c r="F10" s="1">
-        <v>461.94499999999999</v>
+        <v>462.73399999999998</v>
       </c>
       <c r="G10" s="1">
-        <v>535.49599999999998</v>
+        <v>348.55099999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>541.44899999999996</v>
+        <v>338.80200000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>648.67100000000005</v>
+        <v>353.95600000000002</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
@@ -637,19 +661,19 @@
         <v>2048</v>
       </c>
       <c r="E11" s="1">
-        <v>8172.52</v>
+        <v>6424.47</v>
       </c>
       <c r="F11" s="1">
-        <v>5019.22</v>
+        <v>2857.26</v>
       </c>
       <c r="G11" s="1">
-        <v>4357.13</v>
+        <v>2587.06</v>
       </c>
       <c r="H11" s="1">
-        <v>4280.18</v>
+        <v>2617.4</v>
       </c>
       <c r="I11" s="1">
-        <v>4807.49</v>
+        <v>2618.39</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
@@ -687,13 +711,13 @@
         <v>14.866199999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>1.9259900000000001</v>
+        <v>1.7477100000000001</v>
       </c>
       <c r="G16" s="1">
-        <v>1.84657</v>
+        <v>1.61337</v>
       </c>
       <c r="H16" s="1">
-        <v>1.91414</v>
+        <v>1.62304</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
@@ -704,13 +728,13 @@
         <v>30.579899999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>4.9853899999999998</v>
+        <v>4.4662100000000002</v>
       </c>
       <c r="G17" s="1">
-        <v>4.7769199999999996</v>
+        <v>4.2754700000000003</v>
       </c>
       <c r="H17" s="1">
-        <v>4.7980600000000004</v>
+        <v>4.3180699999999996</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
@@ -718,16 +742,16 @@
         <v>256</v>
       </c>
       <c r="E18" s="1">
-        <v>63.619</v>
+        <v>60.337000000000003</v>
       </c>
       <c r="F18" s="1">
-        <v>20.043199999999999</v>
+        <v>17.907299999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>19.788</v>
+        <v>16.347200000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>19.551400000000001</v>
+        <v>18.108899999999998</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
@@ -735,16 +759,16 @@
         <v>512</v>
       </c>
       <c r="E19" s="1">
-        <v>200.99199999999999</v>
+        <v>189.34299999999999</v>
       </c>
       <c r="F19" s="1">
-        <v>113.651</v>
+        <v>99.169200000000004</v>
       </c>
       <c r="G19" s="1">
-        <v>111.274</v>
+        <v>101.455</v>
       </c>
       <c r="H19" s="1">
-        <v>116.251</v>
+        <v>100.52800000000001</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
@@ -752,16 +776,16 @@
         <v>1024</v>
       </c>
       <c r="E20" s="1">
-        <v>830.15800000000002</v>
+        <v>764.59100000000001</v>
       </c>
       <c r="F20" s="1">
-        <v>710.92499999999995</v>
+        <v>639.00199999999995</v>
       </c>
       <c r="G20" s="1">
-        <v>672.52099999999996</v>
+        <v>636.39700000000005</v>
       </c>
       <c r="H20" s="1">
-        <v>684.1</v>
+        <v>661.48</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
@@ -769,16 +793,16 @@
         <v>2048</v>
       </c>
       <c r="E21" s="1">
-        <v>3892.49</v>
+        <v>4092.7</v>
       </c>
       <c r="F21" s="1">
-        <v>3581.19</v>
+        <v>3675.99</v>
       </c>
       <c r="G21" s="1">
-        <v>3684.94</v>
+        <v>3965.63</v>
       </c>
       <c r="H21" s="1">
-        <v>3691.73</v>
+        <v>3812.68</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
@@ -825,28 +849,28 @@
         <v>64</v>
       </c>
       <c r="E26" s="1">
-        <v>19.6191</v>
+        <v>15.076700000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>18.277200000000001</v>
+        <v>13.3551</v>
       </c>
       <c r="G26" s="1">
-        <v>2.0085799999999998</v>
+        <v>1.48997</v>
       </c>
       <c r="H26" s="1">
-        <v>2.1414800000000001</v>
+        <v>1.44998</v>
       </c>
       <c r="I26" s="1">
-        <v>2.03254</v>
+        <v>1.53146</v>
       </c>
       <c r="J26" s="1">
-        <v>1.61856</v>
+        <v>1.3388599999999999</v>
       </c>
       <c r="K26" s="1">
-        <v>1.84368</v>
+        <v>1.32822</v>
       </c>
       <c r="L26" s="1">
-        <v>1.50928</v>
+        <v>1.1514500000000001</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
@@ -854,28 +878,28 @@
         <v>128</v>
       </c>
       <c r="E27" s="1">
-        <v>36.8782</v>
+        <v>30.542400000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>36.362000000000002</v>
+        <v>27.5761</v>
       </c>
       <c r="G27" s="1">
-        <v>4.3257700000000003</v>
+        <v>3.08121</v>
       </c>
       <c r="H27" s="1">
-        <v>4.09612</v>
+        <v>3.1112799999999998</v>
       </c>
       <c r="I27" s="1">
-        <v>3.67822</v>
+        <v>2.7845900000000001</v>
       </c>
       <c r="J27" s="1">
-        <v>3.4774099999999999</v>
+        <v>2.7153499999999999</v>
       </c>
       <c r="K27" s="1">
-        <v>3.4349400000000001</v>
+        <v>2.56453</v>
       </c>
       <c r="L27" s="1">
-        <v>3.4205199999999998</v>
+        <v>2.49973</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
@@ -883,28 +907,28 @@
         <v>256</v>
       </c>
       <c r="E28" s="1">
-        <v>74.345500000000001</v>
+        <v>58.335099999999997</v>
       </c>
       <c r="F28" s="1">
-        <v>74.421499999999995</v>
+        <v>56.168999999999997</v>
       </c>
       <c r="G28" s="1">
-        <v>12.2742</v>
+        <v>8.77651</v>
       </c>
       <c r="H28" s="1">
-        <v>9.1731499999999997</v>
+        <v>7.3227200000000003</v>
       </c>
       <c r="I28" s="1">
-        <v>10.7218</v>
+        <v>8.2606999999999999</v>
       </c>
       <c r="J28" s="1">
-        <v>9.6463900000000002</v>
+        <v>6.9062900000000003</v>
       </c>
       <c r="K28" s="1">
-        <v>10.5223</v>
+        <v>8.1164799999999993</v>
       </c>
       <c r="L28" s="1">
-        <v>9.9506800000000002</v>
+        <v>6.3660100000000002</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
@@ -912,28 +936,28 @@
         <v>512</v>
       </c>
       <c r="E29" s="1">
-        <v>182.429</v>
+        <v>138.54499999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>172.11600000000001</v>
+        <v>130.589</v>
       </c>
       <c r="G29" s="1">
-        <v>54.433300000000003</v>
+        <v>38.472000000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>43.968600000000002</v>
+        <v>28.1325</v>
       </c>
       <c r="I29" s="1">
-        <v>56.355499999999999</v>
+        <v>35.092100000000002</v>
       </c>
       <c r="J29" s="1">
-        <v>45.825200000000002</v>
+        <v>28.114799999999999</v>
       </c>
       <c r="K29" s="1">
-        <v>60.891800000000003</v>
+        <v>36.987099999999998</v>
       </c>
       <c r="L29" s="1">
-        <v>45.971600000000002</v>
+        <v>26.892099999999999</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
@@ -941,28 +965,28 @@
         <v>1024</v>
       </c>
       <c r="E30" s="1">
-        <v>469.42700000000002</v>
+        <v>351.38900000000001</v>
       </c>
       <c r="F30" s="1">
-        <v>380.63299999999998</v>
+        <v>272.875</v>
       </c>
       <c r="G30" s="1">
-        <v>339.43099999999998</v>
+        <v>212.67599999999999</v>
       </c>
       <c r="H30" s="1">
-        <v>208.53899999999999</v>
+        <v>133.52099999999999</v>
       </c>
       <c r="I30" s="1">
-        <v>315.41399999999999</v>
+        <v>216.506</v>
       </c>
       <c r="J30" s="1">
-        <v>266.82400000000001</v>
+        <v>129.24199999999999</v>
       </c>
       <c r="K30" s="1">
-        <v>401.82499999999999</v>
+        <v>219.316</v>
       </c>
       <c r="L30" s="1">
-        <v>270.85599999999999</v>
+        <v>125.78700000000001</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
@@ -970,170 +994,191 @@
         <v>2048</v>
       </c>
       <c r="E31" s="1">
-        <v>3147.71</v>
+        <v>1889.43</v>
       </c>
       <c r="F31" s="1">
-        <v>1757.41</v>
+        <v>1171.22</v>
       </c>
       <c r="G31" s="1">
-        <v>2609.4899999999998</v>
+        <v>1573.63</v>
       </c>
       <c r="H31" s="1">
-        <v>1302.6400000000001</v>
+        <v>832.86</v>
       </c>
       <c r="I31" s="1">
-        <v>2607.12</v>
+        <v>1614.96</v>
       </c>
       <c r="J31" s="1">
-        <v>1366.95</v>
+        <v>852.99900000000002</v>
       </c>
       <c r="K31" s="1">
-        <v>1988.47</v>
+        <v>1605.28</v>
       </c>
       <c r="L31" s="1">
-        <v>938.98099999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+        <v>847.63900000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>12</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>64</v>
       </c>
       <c r="E36" s="1">
-        <v>8.1097000000000001</v>
+        <v>0.44438</v>
       </c>
       <c r="F36" s="1">
-        <v>1.7097</v>
+        <v>8.6202900000000007</v>
       </c>
       <c r="G36" s="1">
+        <v>1.66496</v>
+      </c>
+      <c r="H36" s="1">
         <v>1.53007</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>1.35364</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>128</v>
       </c>
       <c r="E37" s="1">
-        <v>16.9895</v>
+        <v>3.4749500000000002</v>
       </c>
       <c r="F37" s="1">
+        <v>17.245799999999999</v>
+      </c>
+      <c r="G37" s="1">
         <v>3.78044</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>3.53945</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>3.05423</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>256</v>
       </c>
       <c r="E38" s="1">
-        <v>37.4285</v>
+        <v>27.575199999999999</v>
       </c>
       <c r="F38" s="1">
+        <v>38.314599999999999</v>
+      </c>
+      <c r="G38" s="1">
         <v>11.8249</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>10.8834</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>9.5529899999999994</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>512</v>
       </c>
       <c r="E39" s="1">
-        <v>104.89</v>
+        <v>224.749</v>
       </c>
       <c r="F39" s="1">
-        <v>56.141599999999997</v>
+        <v>111.82899999999999</v>
       </c>
       <c r="G39" s="1">
+        <v>55.633899999999997</v>
+      </c>
+      <c r="H39" s="1">
         <v>54.3797</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>52.540599999999998</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>1024</v>
       </c>
       <c r="E40" s="1">
-        <v>461.96300000000002</v>
+        <v>1861.97</v>
       </c>
       <c r="F40" s="1">
-        <v>392.10899999999998</v>
+        <v>469.65600000000001</v>
       </c>
       <c r="G40" s="1">
+        <v>399.065</v>
+      </c>
+      <c r="H40" s="1">
         <v>394.065</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>370.94099999999997</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>2048</v>
       </c>
       <c r="E41" s="1">
-        <v>2859.52</v>
+        <v>14665.2</v>
       </c>
       <c r="F41" s="1">
-        <v>4776.09</v>
+        <v>2918.94</v>
       </c>
       <c r="G41" s="1">
+        <v>4333.13</v>
+      </c>
+      <c r="H41" s="1">
         <v>4581.2299999999996</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>4261.43</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>0</v>
       </c>
@@ -1147,70 +1192,262 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>64</v>
       </c>
       <c r="E46" s="1">
-        <v>0.32980999999999999</v>
-      </c>
-      <c r="F46">
-        <v>0.21285000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.27428200000000003</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.17163800000000001</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.17863499999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>128</v>
       </c>
       <c r="E47" s="1">
-        <v>1.5542</v>
-      </c>
-      <c r="F47">
-        <v>1.36513</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+        <v>1.61358</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.4951700000000001</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.93533</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>256</v>
       </c>
       <c r="E48" s="1">
-        <v>12.968400000000001</v>
-      </c>
-      <c r="F48">
-        <v>8.9909099999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+        <v>13.3544</v>
+      </c>
+      <c r="F48" s="1">
+        <v>9.1945800000000002</v>
+      </c>
+      <c r="G48" s="1">
+        <v>12.5451</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>512</v>
       </c>
       <c r="E49" s="1">
-        <v>105.06100000000001</v>
-      </c>
-      <c r="F49">
-        <v>77.160899999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+        <v>108.32299999999999</v>
+      </c>
+      <c r="F49" s="1">
+        <v>76.320800000000006</v>
+      </c>
+      <c r="G49" s="1">
+        <v>113.578</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>1024</v>
       </c>
       <c r="E50" s="1">
-        <v>754.21400000000006</v>
-      </c>
-      <c r="F50">
-        <v>622.005</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+        <v>964.59900000000005</v>
+      </c>
+      <c r="F50" s="1">
+        <v>652.53399999999999</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1066.125</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>2048</v>
       </c>
       <c r="E51" s="1">
-        <v>6451.95</v>
-      </c>
-      <c r="F51">
-        <v>4906.25</v>
+        <v>6516.83</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5710.99</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8328.2800000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>64</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.13952600000000001</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.11071400000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>128</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.03986</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.60065400000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>256</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8.3612099999999998</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4.4132999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>512</v>
+      </c>
+      <c r="E59" s="1">
+        <v>66.144300000000001</v>
+      </c>
+      <c r="F59" s="1">
+        <v>33.453800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1024</v>
+      </c>
+      <c r="E60" s="1">
+        <v>595.18600000000004</v>
+      </c>
+      <c r="F60" s="1">
+        <v>281.48</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>2048</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4567.22</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2618.44</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.44612000000000002</v>
+      </c>
+      <c r="F66">
+        <v>0.22641</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>128</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3.4956100000000001</v>
+      </c>
+      <c r="F67">
+        <v>0.90175000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>256</v>
+      </c>
+      <c r="E68" s="1">
+        <v>27.698599999999999</v>
+      </c>
+      <c r="F68">
+        <v>6.43574</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>512</v>
+      </c>
+      <c r="E69" s="1">
+        <v>226.447</v>
+      </c>
+      <c r="F69">
+        <v>41.999099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1024</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1832.83</v>
+      </c>
+      <c r="F70">
+        <v>325.19799999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>2048</v>
+      </c>
+      <c r="E71" s="1">
+        <v>14920.73</v>
+      </c>
+      <c r="F71">
+        <v>2620.6799999999998</v>
       </c>
     </row>
   </sheetData>

--- a/lab3_Pthread和Openmp/实验数据.xlsx
+++ b/lab3_Pthread和Openmp/实验数据.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>串行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验七：普通高斯消去pthread的CPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pthread4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L71"/>
+  <dimension ref="D3:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="78" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>64</v>
       </c>
@@ -1395,7 +1419,7 @@
         <v>0.22641</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>128</v>
       </c>
@@ -1406,7 +1430,7 @@
         <v>0.90175000000000005</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>256</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>6.43574</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>512</v>
       </c>
@@ -1428,7 +1452,7 @@
         <v>41.999099999999999</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>1024</v>
       </c>
@@ -1439,7 +1463,7 @@
         <v>325.19799999999998</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>2048</v>
       </c>
@@ -1448,6 +1472,96 @@
       </c>
       <c r="F71">
         <v>2620.6799999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>256</v>
+      </c>
+      <c r="E75">
+        <v>0.75</v>
+      </c>
+      <c r="F75">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G75">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H75">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>512</v>
+      </c>
+      <c r="E76">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F76">
+        <v>0.36</v>
+      </c>
+      <c r="G76">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H76">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1024</v>
+      </c>
+      <c r="E77">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F77">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G77">
+        <v>0.317</v>
+      </c>
+      <c r="H77">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>2048</v>
+      </c>
+      <c r="E78">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F78">
+        <v>0.32</v>
+      </c>
+      <c r="G78">
+        <v>0.308</v>
+      </c>
+      <c r="H78">
+        <v>0.311</v>
       </c>
     </row>
   </sheetData>
